--- a/result/Sampling_consen.xlsx
+++ b/result/Sampling_consen.xlsx
@@ -470,13 +470,13 @@
         <v>49.3</v>
       </c>
       <c r="C2" t="n">
-        <v>48.3</v>
+        <v>0.005268703898840885</v>
       </c>
       <c r="D2" t="n">
         <v>0.3225806451612903</v>
       </c>
       <c r="E2" t="n">
-        <v>9.928314789346743</v>
+        <v>9.928314789346755</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>20.43333333333333</v>
       </c>
       <c r="C3" t="n">
-        <v>19.43333333333333</v>
+        <v>0.01580611169652266</v>
       </c>
       <c r="D3" t="n">
         <v>0.3417721518987342</v>
       </c>
       <c r="E3" t="n">
-        <v>8.403753603050978</v>
+        <v>8.403753603050987</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>8.837209302325581</v>
       </c>
       <c r="C4" t="n">
-        <v>7.837209302325581</v>
+        <v>0.02265542676501581</v>
       </c>
       <c r="D4" t="n">
         <v>0.04379562043795621</v>
       </c>
       <c r="E4" t="n">
-        <v>7.867195719408272</v>
+        <v>7.867195719408295</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>17.44186046511628</v>
       </c>
       <c r="C5" t="n">
-        <v>16.44186046511628</v>
+        <v>0.02265542676501581</v>
       </c>
       <c r="D5" t="n">
         <v>1.666666666666667</v>
       </c>
       <c r="E5" t="n">
-        <v>8.407169416009122</v>
+        <v>8.407169416009131</v>
       </c>
     </row>
     <row r="6">
@@ -546,13 +546,13 @@
         <v>37.73333333333333</v>
       </c>
       <c r="C6" t="n">
-        <v>36.73333333333333</v>
+        <v>0.007903055848261328</v>
       </c>
       <c r="D6" t="n">
         <v>0.1470588235294118</v>
       </c>
       <c r="E6" t="n">
-        <v>9.723528937894379</v>
+        <v>9.723528937894391</v>
       </c>
     </row>
     <row r="7">
@@ -565,13 +565,13 @@
         <v>20.73333333333333</v>
       </c>
       <c r="C7" t="n">
-        <v>19.73333333333333</v>
+        <v>0.01580611169652266</v>
       </c>
       <c r="D7" t="n">
         <v>0.1707317073170732</v>
       </c>
       <c r="E7" t="n">
-        <v>7.850210548219882</v>
+        <v>7.850210548219892</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +584,13 @@
         <v>15.93333333333333</v>
       </c>
       <c r="C8" t="n">
-        <v>14.93333333333333</v>
+        <v>0.02370916754478398</v>
       </c>
       <c r="D8" t="n">
         <v>0.6584362139917695</v>
       </c>
       <c r="E8" t="n">
-        <v>8.316709540311036</v>
+        <v>8.316709540311045</v>
       </c>
     </row>
     <row r="9">
@@ -603,13 +603,13 @@
         <v>33.85</v>
       </c>
       <c r="C9" t="n">
-        <v>32.85</v>
+        <v>0.01053740779768177</v>
       </c>
       <c r="D9" t="n">
         <v>0.3538461538461539</v>
       </c>
       <c r="E9" t="n">
-        <v>9.783884559721493</v>
+        <v>9.783884559721503</v>
       </c>
     </row>
     <row r="10">
@@ -622,13 +622,13 @@
         <v>34.78571428571428</v>
       </c>
       <c r="C10" t="n">
-        <v>33.78571428571428</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D10" t="n">
         <v>0.4</v>
       </c>
       <c r="E10" t="n">
-        <v>10.65459936109023</v>
+        <v>10.65459936109024</v>
       </c>
     </row>
     <row r="11">
@@ -641,13 +641,13 @@
         <v>17.14634146341463</v>
       </c>
       <c r="C11" t="n">
-        <v>16.14634146341463</v>
+        <v>0.02160168598524763</v>
       </c>
       <c r="D11" t="n">
         <v>0.812933025404157</v>
       </c>
       <c r="E11" t="n">
-        <v>8.131467506428057</v>
+        <v>8.131467506428068</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         <v>15.35714285714286</v>
       </c>
       <c r="C12" t="n">
-        <v>14.35714285714286</v>
+        <v>0.01475237091675448</v>
       </c>
       <c r="D12" t="n">
         <v>0.2207792207792208</v>
       </c>
       <c r="E12" t="n">
-        <v>7.98230759485565</v>
+        <v>7.98230759485566</v>
       </c>
     </row>
     <row r="13">
@@ -679,13 +679,13 @@
         <v>14.71794871794872</v>
       </c>
       <c r="C13" t="n">
-        <v>13.71794871794872</v>
+        <v>0.02054794520547945</v>
       </c>
       <c r="D13" t="n">
         <v>1.39945652173913</v>
       </c>
       <c r="E13" t="n">
-        <v>8.313067582397611</v>
+        <v>8.31306758239762</v>
       </c>
     </row>
     <row r="14">
@@ -698,13 +698,13 @@
         <v>40.78571428571428</v>
       </c>
       <c r="C14" t="n">
-        <v>39.78571428571428</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D14" t="n">
         <v>0.391304347826087</v>
       </c>
       <c r="E14" t="n">
-        <v>8.994638068737821</v>
+        <v>8.994638068737837</v>
       </c>
     </row>
     <row r="15">
@@ -717,13 +717,13 @@
         <v>15.5</v>
       </c>
       <c r="C15" t="n">
-        <v>14.5</v>
+        <v>0.001053740779768177</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>9.315659121442595</v>
+        <v>9.315659121442611</v>
       </c>
     </row>
     <row r="16">
@@ -736,13 +736,13 @@
         <v>14.74468085106383</v>
       </c>
       <c r="C16" t="n">
-        <v>13.74468085106383</v>
+        <v>0.02476290832455216</v>
       </c>
       <c r="D16" t="n">
         <v>0.2709923664122137</v>
       </c>
       <c r="E16" t="n">
-        <v>7.923562905352521</v>
+        <v>7.923562905352542</v>
       </c>
     </row>
     <row r="17">
@@ -755,13 +755,13 @@
         <v>12.04545454545454</v>
       </c>
       <c r="C17" t="n">
-        <v>11.04545454545454</v>
+        <v>0.01159114857744995</v>
       </c>
       <c r="D17" t="n">
         <v>0.2926829268292683</v>
       </c>
       <c r="E17" t="n">
-        <v>8.326243958461392</v>
+        <v>8.326243958461403</v>
       </c>
     </row>
     <row r="18">
@@ -774,13 +774,13 @@
         <v>21.04347826086957</v>
       </c>
       <c r="C18" t="n">
-        <v>20.04347826086957</v>
+        <v>0.01211801896733404</v>
       </c>
       <c r="D18" t="n">
         <v>0.3152173913043478</v>
       </c>
       <c r="E18" t="n">
-        <v>8.435722439319663</v>
+        <v>8.435722439319681</v>
       </c>
     </row>
     <row r="19">
@@ -793,13 +793,13 @@
         <v>31.07692307692308</v>
       </c>
       <c r="C19" t="n">
-        <v>30.07692307692308</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="D19" t="n">
         <v>0.02564102564102564</v>
       </c>
       <c r="E19" t="n">
-        <v>9.089556383594765</v>
+        <v>9.089556383594783</v>
       </c>
     </row>
     <row r="20">
@@ -812,13 +812,13 @@
         <v>31.33333333333333</v>
       </c>
       <c r="C20" t="n">
-        <v>30.33333333333333</v>
+        <v>0.009483667017913594</v>
       </c>
       <c r="D20" t="n">
         <v>0.4459459459459459</v>
       </c>
       <c r="E20" t="n">
-        <v>9.357004416116993</v>
+        <v>9.357004416117009</v>
       </c>
     </row>
     <row r="21">
@@ -831,13 +831,13 @@
         <v>37.53333333333333</v>
       </c>
       <c r="C21" t="n">
-        <v>36.53333333333333</v>
+        <v>0.007903055848261328</v>
       </c>
       <c r="D21" t="n">
         <v>0.15</v>
       </c>
       <c r="E21" t="n">
-        <v>8.827832463876065</v>
+        <v>8.827832463876078</v>
       </c>
     </row>
     <row r="22">
@@ -850,13 +850,13 @@
         <v>20.07142857142857</v>
       </c>
       <c r="C22" t="n">
-        <v>19.07142857142857</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D22" t="n">
         <v>0.1875</v>
       </c>
       <c r="E22" t="n">
-        <v>9.840687616802189</v>
+        <v>9.840687616802203</v>
       </c>
     </row>
     <row r="23">
@@ -869,13 +869,13 @@
         <v>31.84615384615385</v>
       </c>
       <c r="C23" t="n">
-        <v>30.84615384615385</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="D23" t="n">
         <v>0.2926829268292683</v>
       </c>
       <c r="E23" t="n">
-        <v>9.169099653999492</v>
+        <v>9.169099653999515</v>
       </c>
     </row>
     <row r="24">
@@ -888,13 +888,13 @@
         <v>19.83870967741936</v>
       </c>
       <c r="C24" t="n">
-        <v>18.83870967741936</v>
+        <v>0.01633298208640674</v>
       </c>
       <c r="D24" t="n">
         <v>0.4047619047619048</v>
       </c>
       <c r="E24" t="n">
-        <v>8.85530668130599</v>
+        <v>8.855306681306006</v>
       </c>
     </row>
     <row r="25">
@@ -907,13 +907,13 @@
         <v>20.31578947368421</v>
       </c>
       <c r="C25" t="n">
-        <v>19.31578947368421</v>
+        <v>0.01001053740779768</v>
       </c>
       <c r="D25" t="n">
         <v>0.07894736842105263</v>
       </c>
       <c r="E25" t="n">
-        <v>8.86126490503065</v>
+        <v>8.861264905030664</v>
       </c>
     </row>
     <row r="26">
@@ -926,13 +926,13 @@
         <v>40.63636363636363</v>
       </c>
       <c r="C26" t="n">
-        <v>39.63636363636363</v>
+        <v>0.005795574288724974</v>
       </c>
       <c r="D26" t="n">
         <v>0.25</v>
       </c>
       <c r="E26" t="n">
-        <v>8.74277705683361</v>
+        <v>8.742777056833628</v>
       </c>
     </row>
     <row r="27">
@@ -945,13 +945,13 @@
         <v>48</v>
       </c>
       <c r="C27" t="n">
-        <v>47</v>
+        <v>0.005268703898840885</v>
       </c>
       <c r="D27" t="n">
         <v>0.3529411764705883</v>
       </c>
       <c r="E27" t="n">
-        <v>9.861619110688205</v>
+        <v>9.861619110688217</v>
       </c>
     </row>
     <row r="28">
@@ -964,13 +964,13 @@
         <v>44</v>
       </c>
       <c r="C28" t="n">
-        <v>43</v>
+        <v>0.006322444678609062</v>
       </c>
       <c r="D28" t="n">
         <v>0.2121212121212121</v>
       </c>
       <c r="E28" t="n">
-        <v>10.05370321608723</v>
+        <v>10.05370321608725</v>
       </c>
     </row>
     <row r="29">
@@ -983,13 +983,13 @@
         <v>15.05714285714286</v>
       </c>
       <c r="C29" t="n">
-        <v>14.05714285714286</v>
+        <v>0.0184404636459431</v>
       </c>
       <c r="D29" t="n">
         <v>1.145228215767635</v>
       </c>
       <c r="E29" t="n">
-        <v>7.878454586342956</v>
+        <v>7.878454586342968</v>
       </c>
     </row>
     <row r="30">
@@ -1002,13 +1002,13 @@
         <v>17.05263157894737</v>
       </c>
       <c r="C30" t="n">
-        <v>16.05263157894737</v>
+        <v>0.02002107481559536</v>
       </c>
       <c r="D30" t="n">
         <v>1.088154269972452</v>
       </c>
       <c r="E30" t="n">
-        <v>8.389664683445162</v>
+        <v>8.38966468344517</v>
       </c>
     </row>
     <row r="31">
@@ -1021,13 +1021,13 @@
         <v>35.71428571428572</v>
       </c>
       <c r="C31" t="n">
-        <v>34.71428571428572</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D31" t="n">
         <v>0.1621621621621622</v>
       </c>
       <c r="E31" t="n">
-        <v>8.882557539577096</v>
+        <v>8.882557539577112</v>
       </c>
     </row>
     <row r="32">
@@ -1040,13 +1040,13 @@
         <v>15.10869565217391</v>
       </c>
       <c r="C32" t="n">
-        <v>14.10869565217391</v>
+        <v>0.02423603793466807</v>
       </c>
       <c r="D32" t="n">
         <v>0.6431095406360424</v>
       </c>
       <c r="E32" t="n">
-        <v>8.143380882226207</v>
+        <v>8.143380882226221</v>
       </c>
     </row>
     <row r="33">
@@ -1059,13 +1059,13 @@
         <v>21.65217391304348</v>
       </c>
       <c r="C33" t="n">
-        <v>20.65217391304348</v>
+        <v>0.01211801896733404</v>
       </c>
       <c r="D33" t="n">
         <v>0.1746031746031746</v>
       </c>
       <c r="E33" t="n">
-        <v>8.489494714321607</v>
+        <v>8.48949471432163</v>
       </c>
     </row>
     <row r="34">
@@ -1078,13 +1078,13 @@
         <v>16.04761904761905</v>
       </c>
       <c r="C34" t="n">
-        <v>15.04761904761905</v>
+        <v>0.01106427818756586</v>
       </c>
       <c r="D34" t="n">
         <v>0.3142857142857143</v>
       </c>
       <c r="E34" t="n">
-        <v>8.74292863372094</v>
+        <v>8.742928633720961</v>
       </c>
     </row>
     <row r="35">
@@ -1097,13 +1097,13 @@
         <v>16.61111111111111</v>
       </c>
       <c r="C35" t="n">
-        <v>15.61111111111111</v>
+        <v>0.009483667017913594</v>
       </c>
       <c r="D35" t="n">
         <v>0.04878048780487805</v>
       </c>
       <c r="E35" t="n">
-        <v>8.377651178758565</v>
+        <v>8.377651178758583</v>
       </c>
     </row>
     <row r="36">
@@ -1116,13 +1116,13 @@
         <v>29.09523809523809</v>
       </c>
       <c r="C36" t="n">
-        <v>28.09523809523809</v>
+        <v>0.01106427818756586</v>
       </c>
       <c r="D36" t="n">
         <v>0.6029411764705882</v>
       </c>
       <c r="E36" t="n">
-        <v>8.689602009231487</v>
+        <v>8.689602009231502</v>
       </c>
     </row>
     <row r="37">
@@ -1135,13 +1135,13 @@
         <v>16</v>
       </c>
       <c r="C37" t="n">
-        <v>15</v>
+        <v>0.00684931506849315</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>6.240714297486094</v>
+        <v>6.240714297486103</v>
       </c>
     </row>
     <row r="38">
@@ -1154,13 +1154,13 @@
         <v>31.70588235294118</v>
       </c>
       <c r="C38" t="n">
-        <v>30.70588235294118</v>
+        <v>0.008956796628029505</v>
       </c>
       <c r="D38" t="n">
         <v>0.2448979591836735</v>
       </c>
       <c r="E38" t="n">
-        <v>8.868640812973712</v>
+        <v>8.868640812973728</v>
       </c>
     </row>
     <row r="39">
@@ -1173,13 +1173,13 @@
         <v>27.6</v>
       </c>
       <c r="C39" t="n">
-        <v>26.6</v>
+        <v>0.007903055848261328</v>
       </c>
       <c r="D39" t="n">
         <v>0.5076923076923077</v>
       </c>
       <c r="E39" t="n">
-        <v>8.623614688182514</v>
+        <v>8.623614688182524</v>
       </c>
     </row>
     <row r="40">
@@ -1192,13 +1192,13 @@
         <v>26.66666666666667</v>
       </c>
       <c r="C40" t="n">
-        <v>25.66666666666667</v>
+        <v>0.006322444678609062</v>
       </c>
       <c r="D40" t="n">
         <v>0.5135135135135135</v>
       </c>
       <c r="E40" t="n">
-        <v>10.23675986483872</v>
+        <v>10.23675986483873</v>
       </c>
     </row>
     <row r="41">
@@ -1211,13 +1211,13 @@
         <v>26.125</v>
       </c>
       <c r="C41" t="n">
-        <v>25.125</v>
+        <v>0.01264488935721812</v>
       </c>
       <c r="D41" t="n">
         <v>0.5930232558139535</v>
       </c>
       <c r="E41" t="n">
-        <v>8.874349502939609</v>
+        <v>8.87434950293963</v>
       </c>
     </row>
     <row r="42">
@@ -1230,13 +1230,13 @@
         <v>33.73333333333333</v>
       </c>
       <c r="C42" t="n">
-        <v>32.73333333333333</v>
+        <v>0.007903055848261328</v>
       </c>
       <c r="D42" t="n">
         <v>0.2272727272727273</v>
       </c>
       <c r="E42" t="n">
-        <v>8.927789122759485</v>
+        <v>8.927789122759497</v>
       </c>
     </row>
     <row r="43">
@@ -1249,13 +1249,13 @@
         <v>17.6</v>
       </c>
       <c r="C43" t="n">
-        <v>16.6</v>
+        <v>0.007903055848261328</v>
       </c>
       <c r="D43" t="n">
         <v>0.2647058823529412</v>
       </c>
       <c r="E43" t="n">
-        <v>10.05919449584639</v>
+        <v>10.05919449584641</v>
       </c>
     </row>
     <row r="44">
@@ -1268,13 +1268,13 @@
         <v>40.4</v>
       </c>
       <c r="C44" t="n">
-        <v>39.4</v>
+        <v>0.005268703898840885</v>
       </c>
       <c r="D44" t="n">
         <v>0.2142857142857143</v>
       </c>
       <c r="E44" t="n">
-        <v>9.369505885273625</v>
+        <v>9.369505885273638</v>
       </c>
     </row>
     <row r="45">
@@ -1287,13 +1287,13 @@
         <v>3.045454545454545</v>
       </c>
       <c r="C45" t="n">
-        <v>2.045454545454545</v>
+        <v>0.01159114857744995</v>
       </c>
       <c r="D45" t="n">
         <v>0.1492537313432836</v>
       </c>
       <c r="E45" t="n">
-        <v>6.746394048635902</v>
+        <v>6.746394048635912</v>
       </c>
     </row>
     <row r="46">
@@ -1306,13 +1306,13 @@
         <v>45.5</v>
       </c>
       <c r="C46" t="n">
-        <v>44.5</v>
+        <v>0.005268703898840885</v>
       </c>
       <c r="D46" t="n">
         <v>0.1904761904761905</v>
       </c>
       <c r="E46" t="n">
-        <v>10.65463605889119</v>
+        <v>10.6546360588912</v>
       </c>
     </row>
     <row r="47">
@@ -1325,13 +1325,13 @@
         <v>15.12121212121212</v>
       </c>
       <c r="C47" t="n">
-        <v>14.12121212121212</v>
+        <v>0.01738672286617492</v>
       </c>
       <c r="D47" t="n">
         <v>0.384</v>
       </c>
       <c r="E47" t="n">
-        <v>8.387190367495561</v>
+        <v>8.387190367495572</v>
       </c>
     </row>
     <row r="48">
@@ -1344,13 +1344,13 @@
         <v>71</v>
       </c>
       <c r="C48" t="n">
-        <v>70</v>
+        <v>0.003161222339304531</v>
       </c>
       <c r="D48" t="n">
         <v>0.2352941176470588</v>
       </c>
       <c r="E48" t="n">
-        <v>10.65465562834683</v>
+        <v>10.65465562834685</v>
       </c>
     </row>
     <row r="49">
@@ -1363,13 +1363,13 @@
         <v>37.18181818181818</v>
       </c>
       <c r="C49" t="n">
-        <v>36.18181818181818</v>
+        <v>0.005795574288724974</v>
       </c>
       <c r="D49" t="n">
         <v>0.1714285714285714</v>
       </c>
       <c r="E49" t="n">
-        <v>9.251132647796753</v>
+        <v>9.251132647796767</v>
       </c>
     </row>
     <row r="50">
@@ -1382,13 +1382,13 @@
         <v>15.60975609756098</v>
       </c>
       <c r="C50" t="n">
-        <v>14.60975609756098</v>
+        <v>0.02160168598524763</v>
       </c>
       <c r="D50" t="n">
         <v>0.9591836734693877</v>
       </c>
       <c r="E50" t="n">
-        <v>8.686166240500619</v>
+        <v>8.686166240500635</v>
       </c>
     </row>
     <row r="51">
@@ -1401,13 +1401,13 @@
         <v>71</v>
       </c>
       <c r="C51" t="n">
-        <v>70</v>
+        <v>0.003161222339304531</v>
       </c>
       <c r="D51" t="n">
         <v>0.2352941176470588</v>
       </c>
       <c r="E51" t="n">
-        <v>10.65465562834683</v>
+        <v>10.65465562834685</v>
       </c>
     </row>
     <row r="52">
@@ -1420,13 +1420,13 @@
         <v>33.52941176470588</v>
       </c>
       <c r="C52" t="n">
-        <v>32.52941176470588</v>
+        <v>0.008956796628029505</v>
       </c>
       <c r="D52" t="n">
         <v>0.3275862068965517</v>
       </c>
       <c r="E52" t="n">
-        <v>8.787467418345836</v>
+        <v>8.787467418345848</v>
       </c>
     </row>
     <row r="53">
@@ -1439,13 +1439,13 @@
         <v>23.12</v>
       </c>
       <c r="C53" t="n">
-        <v>22.12</v>
+        <v>0.01317175974710221</v>
       </c>
       <c r="D53" t="n">
         <v>0.1447368421052632</v>
       </c>
       <c r="E53" t="n">
-        <v>6.556817910873873</v>
+        <v>6.55681791087389</v>
       </c>
     </row>
     <row r="54">
@@ -1458,13 +1458,13 @@
         <v>13.6</v>
       </c>
       <c r="C54" t="n">
-        <v>12.6</v>
+        <v>0.005268703898840885</v>
       </c>
       <c r="D54" t="n">
         <v>0.4054054054054054</v>
       </c>
       <c r="E54" t="n">
-        <v>10.19446695581106</v>
+        <v>10.19446695581108</v>
       </c>
     </row>
     <row r="55">
@@ -1477,13 +1477,13 @@
         <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>40</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D55" t="n">
         <v>0.175</v>
       </c>
       <c r="E55" t="n">
-        <v>8.985332051957231</v>
+        <v>8.985332051957242</v>
       </c>
     </row>
     <row r="56">
@@ -1496,13 +1496,13 @@
         <v>33.07142857142857</v>
       </c>
       <c r="C56" t="n">
-        <v>32.07142857142857</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D56" t="n">
         <v>0.1162790697674419</v>
       </c>
       <c r="E56" t="n">
-        <v>9.442539517113252</v>
+        <v>9.442539517113264</v>
       </c>
     </row>
     <row r="57">
@@ -1515,13 +1515,13 @@
         <v>29.77272727272727</v>
       </c>
       <c r="C57" t="n">
-        <v>28.77272727272727</v>
+        <v>0.01159114857744995</v>
       </c>
       <c r="D57" t="n">
         <v>0.2842105263157895</v>
       </c>
       <c r="E57" t="n">
-        <v>9.137128650214404</v>
+        <v>9.137128650214422</v>
       </c>
     </row>
     <row r="58">
@@ -1534,13 +1534,13 @@
         <v>37.75</v>
       </c>
       <c r="C58" t="n">
-        <v>36.75</v>
+        <v>0.008429926238145416</v>
       </c>
       <c r="D58" t="n">
         <v>0.1636363636363636</v>
       </c>
       <c r="E58" t="n">
-        <v>8.85945047161678</v>
+        <v>8.859450471616798</v>
       </c>
     </row>
     <row r="59">
@@ -1553,13 +1553,13 @@
         <v>24.94117647058824</v>
       </c>
       <c r="C59" t="n">
-        <v>23.94117647058824</v>
+        <v>0.008956796628029505</v>
       </c>
       <c r="D59" t="n">
         <v>0.3</v>
       </c>
       <c r="E59" t="n">
-        <v>8.907803042822197</v>
+        <v>8.907803042822209</v>
       </c>
     </row>
     <row r="60">
@@ -1572,13 +1572,13 @@
         <v>29</v>
       </c>
       <c r="C60" t="n">
-        <v>28</v>
+        <v>0.008429926238145416</v>
       </c>
       <c r="D60" t="n">
         <v>0.1555555555555556</v>
       </c>
       <c r="E60" t="n">
-        <v>8.836120223303999</v>
+        <v>8.836120223304007</v>
       </c>
     </row>
     <row r="61">
@@ -1591,13 +1591,13 @@
         <v>15.97222222222222</v>
       </c>
       <c r="C61" t="n">
-        <v>14.97222222222222</v>
+        <v>0.01896733403582719</v>
       </c>
       <c r="D61" t="n">
         <v>0.1147540983606557</v>
       </c>
       <c r="E61" t="n">
-        <v>9.292651333548125</v>
+        <v>9.292651333548134</v>
       </c>
     </row>
     <row r="62">
@@ -1610,13 +1610,13 @@
         <v>38.16666666666666</v>
       </c>
       <c r="C62" t="n">
-        <v>37.16666666666666</v>
+        <v>0.006322444678609062</v>
       </c>
       <c r="D62" t="n">
         <v>0.1944444444444444</v>
       </c>
       <c r="E62" t="n">
-        <v>9.358349616481723</v>
+        <v>9.358349616481735</v>
       </c>
     </row>
     <row r="63">
@@ -1629,13 +1629,13 @@
         <v>71</v>
       </c>
       <c r="C63" t="n">
-        <v>70</v>
+        <v>0.003161222339304531</v>
       </c>
       <c r="D63" t="n">
         <v>0.2352941176470588</v>
       </c>
       <c r="E63" t="n">
-        <v>10.65465562834683</v>
+        <v>10.65465562834685</v>
       </c>
     </row>
     <row r="64">
@@ -1648,13 +1648,13 @@
         <v>19.78571428571428</v>
       </c>
       <c r="C64" t="n">
-        <v>18.78571428571428</v>
+        <v>0.01475237091675448</v>
       </c>
       <c r="D64" t="n">
         <v>0.8367346938775511</v>
       </c>
       <c r="E64" t="n">
-        <v>8.237379443367292</v>
+        <v>8.237379443367306</v>
       </c>
     </row>
     <row r="65">
@@ -1667,13 +1667,13 @@
         <v>24.5</v>
       </c>
       <c r="C65" t="n">
-        <v>23.5</v>
+        <v>0.009483667017913594</v>
       </c>
       <c r="D65" t="n">
         <v>0.2903225806451613</v>
       </c>
       <c r="E65" t="n">
-        <v>8.617432590250408</v>
+        <v>8.617432590250425</v>
       </c>
     </row>
     <row r="66">
@@ -1686,13 +1686,13 @@
         <v>49.09090909090909</v>
       </c>
       <c r="C66" t="n">
-        <v>48.09090909090909</v>
+        <v>0.005795574288724974</v>
       </c>
       <c r="D66" t="n">
         <v>0.1935483870967742</v>
       </c>
       <c r="E66" t="n">
-        <v>9.756434683317865</v>
+        <v>9.756434683317879</v>
       </c>
     </row>
     <row r="67">
@@ -1705,13 +1705,13 @@
         <v>12.31818181818182</v>
       </c>
       <c r="C67" t="n">
-        <v>11.31818181818182</v>
+        <v>0.01159114857744995</v>
       </c>
       <c r="D67" t="n">
         <v>0.5454545454545454</v>
       </c>
       <c r="E67" t="n">
-        <v>9.340564333785947</v>
+        <v>9.340564333785965</v>
       </c>
     </row>
     <row r="68">
@@ -1724,13 +1724,13 @@
         <v>35.63636363636363</v>
       </c>
       <c r="C68" t="n">
-        <v>34.63636363636363</v>
+        <v>0.005795574288724974</v>
       </c>
       <c r="D68" t="n">
         <v>0.2083333333333333</v>
       </c>
       <c r="E68" t="n">
-        <v>10.02641123663521</v>
+        <v>10.02641123663522</v>
       </c>
     </row>
     <row r="69">
@@ -1743,13 +1743,13 @@
         <v>33.5</v>
       </c>
       <c r="C69" t="n">
-        <v>32.5</v>
+        <v>0.009483667017913594</v>
       </c>
       <c r="D69" t="n">
         <v>0.1132075471698113</v>
       </c>
       <c r="E69" t="n">
-        <v>8.213233328468123</v>
+        <v>8.213233328468137</v>
       </c>
     </row>
     <row r="70">
@@ -1762,13 +1762,13 @@
         <v>3.866666666666667</v>
       </c>
       <c r="C70" t="n">
-        <v>2.866666666666667</v>
+        <v>0.02370916754478398</v>
       </c>
       <c r="D70" t="n">
         <v>0.4</v>
       </c>
       <c r="E70" t="n">
-        <v>7.121322693033261</v>
+        <v>7.121322693033274</v>
       </c>
     </row>
     <row r="71">
@@ -1781,13 +1781,13 @@
         <v>31.1875</v>
       </c>
       <c r="C71" t="n">
-        <v>30.1875</v>
+        <v>0.008429926238145416</v>
       </c>
       <c r="D71" t="n">
         <v>0.1395348837209302</v>
       </c>
       <c r="E71" t="n">
-        <v>8.870437976458645</v>
+        <v>8.870437976458657</v>
       </c>
     </row>
     <row r="72">
@@ -1800,13 +1800,13 @@
         <v>18</v>
       </c>
       <c r="C72" t="n">
-        <v>17</v>
+        <v>0.01633298208640674</v>
       </c>
       <c r="D72" t="n">
         <v>0.2135922330097087</v>
       </c>
       <c r="E72" t="n">
-        <v>7.418175112276918</v>
+        <v>7.418175112276931</v>
       </c>
     </row>
     <row r="73">
@@ -1819,13 +1819,13 @@
         <v>37.42857142857143</v>
       </c>
       <c r="C73" t="n">
-        <v>36.42857142857143</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D73" t="n">
         <v>0.2142857142857143</v>
       </c>
       <c r="E73" t="n">
-        <v>10.20917782186175</v>
+        <v>10.20917782186176</v>
       </c>
     </row>
     <row r="74">
@@ -1838,13 +1838,13 @@
         <v>19.83333333333333</v>
       </c>
       <c r="C74" t="n">
-        <v>18.83333333333333</v>
+        <v>0.01580611169652266</v>
       </c>
       <c r="D74" t="n">
         <v>0.8828125</v>
       </c>
       <c r="E74" t="n">
-        <v>8.56688480992163</v>
+        <v>8.566884809921651</v>
       </c>
     </row>
     <row r="75">
@@ -1857,13 +1857,13 @@
         <v>11.8</v>
       </c>
       <c r="C75" t="n">
-        <v>10.8</v>
+        <v>0.01580611169652266</v>
       </c>
       <c r="D75" t="n">
         <v>0.1214953271028037</v>
       </c>
       <c r="E75" t="n">
-        <v>7.752885359984329</v>
+        <v>7.752885359984342</v>
       </c>
     </row>
     <row r="76">
@@ -1876,13 +1876,13 @@
         <v>25.96153846153846</v>
       </c>
       <c r="C76" t="n">
-        <v>24.96153846153846</v>
+        <v>0.0136986301369863</v>
       </c>
       <c r="D76" t="n">
         <v>0.8826530612244898</v>
       </c>
       <c r="E76" t="n">
-        <v>8.781338208256406</v>
+        <v>8.781338208256425</v>
       </c>
     </row>
     <row r="77">
@@ -1895,13 +1895,13 @@
         <v>7.727272727272728</v>
       </c>
       <c r="C77" t="n">
-        <v>6.727272727272728</v>
+        <v>0.005795574288724974</v>
       </c>
       <c r="D77" t="n">
         <v>0</v>
       </c>
       <c r="E77" t="n">
-        <v>8.75367936089792</v>
+        <v>8.75367936089793</v>
       </c>
     </row>
     <row r="78">
@@ -1914,13 +1914,13 @@
         <v>29.54166666666667</v>
       </c>
       <c r="C78" t="n">
-        <v>28.54166666666667</v>
+        <v>0.01264488935721812</v>
       </c>
       <c r="D78" t="n">
         <v>0.6576576576576577</v>
       </c>
       <c r="E78" t="n">
-        <v>9.298463665550273</v>
+        <v>9.298463665550287</v>
       </c>
     </row>
     <row r="79">
@@ -1933,13 +1933,13 @@
         <v>50.16666666666666</v>
       </c>
       <c r="C79" t="n">
-        <v>49.16666666666666</v>
+        <v>0.003161222339304531</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
       </c>
       <c r="E79" t="n">
-        <v>10.39638582438188</v>
+        <v>10.39638582438189</v>
       </c>
     </row>
     <row r="80">
@@ -1952,13 +1952,13 @@
         <v>36.625</v>
       </c>
       <c r="C80" t="n">
-        <v>35.625</v>
+        <v>0.008429926238145416</v>
       </c>
       <c r="D80" t="n">
         <v>0.8271604938271605</v>
       </c>
       <c r="E80" t="n">
-        <v>10.55792654582465</v>
+        <v>10.55792654582467</v>
       </c>
     </row>
     <row r="81">
@@ -1971,13 +1971,13 @@
         <v>46.25</v>
       </c>
       <c r="C81" t="n">
-        <v>45.25</v>
+        <v>0.006322444678609062</v>
       </c>
       <c r="D81" t="n">
         <v>0.2058823529411765</v>
       </c>
       <c r="E81" t="n">
-        <v>9.592922481686776</v>
+        <v>9.592922481686786</v>
       </c>
     </row>
     <row r="82">
@@ -1990,13 +1990,13 @@
         <v>35.71428571428572</v>
       </c>
       <c r="C82" t="n">
-        <v>34.71428571428572</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D82" t="n">
         <v>0.625</v>
       </c>
       <c r="E82" t="n">
-        <v>10.2367689841038</v>
+        <v>10.23676898410382</v>
       </c>
     </row>
     <row r="83">
@@ -2009,13 +2009,13 @@
         <v>12.56521739130435</v>
       </c>
       <c r="C83" t="n">
-        <v>11.56521739130435</v>
+        <v>0.02423603793466807</v>
       </c>
       <c r="D83" t="n">
         <v>0.1612903225806452</v>
       </c>
       <c r="E83" t="n">
-        <v>6.764967719994455</v>
+        <v>6.764967719994461</v>
       </c>
     </row>
     <row r="84">
@@ -2028,13 +2028,13 @@
         <v>31.58823529411765</v>
       </c>
       <c r="C84" t="n">
-        <v>30.58823529411765</v>
+        <v>0.008956796628029505</v>
       </c>
       <c r="D84" t="n">
         <v>0.5176470588235295</v>
       </c>
       <c r="E84" t="n">
-        <v>9.220415651066279</v>
+        <v>9.220415651066288</v>
       </c>
     </row>
     <row r="85">
@@ -2047,13 +2047,13 @@
         <v>4.173913043478261</v>
       </c>
       <c r="C85" t="n">
-        <v>3.173913043478261</v>
+        <v>0.01211801896733404</v>
       </c>
       <c r="D85" t="n">
         <v>0.3529411764705883</v>
       </c>
       <c r="E85" t="n">
-        <v>8.023670773473022</v>
+        <v>8.023670773473041</v>
       </c>
     </row>
     <row r="86">
@@ -2066,13 +2066,13 @@
         <v>49.27272727272727</v>
       </c>
       <c r="C86" t="n">
-        <v>48.27272727272727</v>
+        <v>0.005795574288724974</v>
       </c>
       <c r="D86" t="n">
         <v>0.2058823529411765</v>
       </c>
       <c r="E86" t="n">
-        <v>9.075788515807812</v>
+        <v>9.07578851580783</v>
       </c>
     </row>
     <row r="87">
@@ -2085,13 +2085,13 @@
         <v>13</v>
       </c>
       <c r="C87" t="n">
-        <v>12</v>
+        <v>0.01738672286617492</v>
       </c>
       <c r="D87" t="n">
         <v>0.7164179104477612</v>
       </c>
       <c r="E87" t="n">
-        <v>8.33043579164206</v>
+        <v>8.330435791642076</v>
       </c>
     </row>
     <row r="88">
@@ -2104,13 +2104,13 @@
         <v>42.08333333333334</v>
       </c>
       <c r="C88" t="n">
-        <v>41.08333333333334</v>
+        <v>0.006322444678609062</v>
       </c>
       <c r="D88" t="n">
         <v>0.1428571428571428</v>
       </c>
       <c r="E88" t="n">
-        <v>9.930525502786939</v>
+        <v>9.930525502786962</v>
       </c>
     </row>
     <row r="89">
@@ -2123,13 +2123,13 @@
         <v>46</v>
       </c>
       <c r="C89" t="n">
-        <v>45</v>
+        <v>0.004214963119072708</v>
       </c>
       <c r="D89" t="n">
         <v>0.5666666666666667</v>
       </c>
       <c r="E89" t="n">
-        <v>10.27176200180091</v>
+        <v>10.27176200180092</v>
       </c>
     </row>
     <row r="90">
@@ -2142,13 +2142,13 @@
         <v>51.5</v>
       </c>
       <c r="C90" t="n">
-        <v>50.5</v>
+        <v>0.005268703898840885</v>
       </c>
       <c r="D90" t="n">
         <v>0.3783783783783784</v>
       </c>
       <c r="E90" t="n">
-        <v>9.580697190530589</v>
+        <v>9.580697190530604</v>
       </c>
     </row>
     <row r="91">
@@ -2161,13 +2161,13 @@
         <v>33.92857142857143</v>
       </c>
       <c r="C91" t="n">
-        <v>32.92857142857143</v>
+        <v>0.007376185458377239</v>
       </c>
       <c r="D91" t="n">
         <v>0.3529411764705883</v>
       </c>
       <c r="E91" t="n">
-        <v>9.296642717856015</v>
+        <v>9.296642717856038</v>
       </c>
     </row>
     <row r="92">
@@ -2180,13 +2180,13 @@
         <v>34.83333333333334</v>
       </c>
       <c r="C92" t="n">
-        <v>33.83333333333334</v>
+        <v>0.006322444678609062</v>
       </c>
       <c r="D92" t="n">
         <v>0.05714285714285714</v>
       </c>
       <c r="E92" t="n">
-        <v>7.489884979957499</v>
+        <v>7.48988497995751</v>
       </c>
     </row>
     <row r="93">
@@ -2199,13 +2199,13 @@
         <v>16.25</v>
       </c>
       <c r="C93" t="n">
-        <v>15.25</v>
+        <v>0.01896733403582719</v>
       </c>
       <c r="D93" t="n">
         <v>0.4421052631578947</v>
       </c>
       <c r="E93" t="n">
-        <v>7.937938779186207</v>
+        <v>7.937938779186224</v>
       </c>
     </row>
   </sheetData>
